--- a/dumps/Stocks/TITAGARH RAIL SYSTEMS LIMITED.xlsx
+++ b/dumps/Stocks/TITAGARH RAIL SYSTEMS LIMITED.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,18 +590,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>788.5</v>
+        <v>779.35</v>
       </c>
       <c r="F5" t="n">
-        <v>3962.2</v>
+        <v>3916.25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,7 +610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,18 +626,18 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>772.6</v>
+        <v>788.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3882.3</v>
+        <v>3962.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46038</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -659,21 +659,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>817.05</v>
+        <v>772.6</v>
       </c>
       <c r="F7" t="n">
-        <v>8211.4</v>
+        <v>3882.3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>40.9</v>
+        <v>19.3</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -698,18 +698,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>791</v>
+        <v>817.05</v>
       </c>
       <c r="F8" t="n">
-        <v>7949.6</v>
+        <v>8211.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>890.35</v>
+        <v>791</v>
       </c>
       <c r="F9" t="n">
-        <v>4474</v>
+        <v>7949.6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>22.25</v>
+        <v>39.6</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +754,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46020</v>
+        <v>46027</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -770,20 +770,56 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
+        <v>890.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4474</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CN#252610159828</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
         <v>902.99</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>4537.54</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>CN#252609871125</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>22.59</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/TITAGARH RAIL SYSTEMS LIMITED.xlsx
+++ b/dumps/Stocks/TITAGARH RAIL SYSTEMS LIMITED.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46062</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +590,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>779.35</v>
+        <v>754.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3916.25</v>
+        <v>3798.61</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
+          <t>CN#252611972212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.795</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5</v>
+        <v>22.8149</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,7 +613,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,18 +629,18 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>788.5</v>
+        <v>779.35</v>
       </c>
       <c r="F6" t="n">
-        <v>3962.2</v>
+        <v>3916.25</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +649,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -662,18 +665,18 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>772.6</v>
+        <v>788.5</v>
       </c>
       <c r="F7" t="n">
-        <v>3882.3</v>
+        <v>3962.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +685,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46038</v>
+        <v>46059</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,21 +698,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>817.05</v>
+        <v>772.6</v>
       </c>
       <c r="F8" t="n">
-        <v>8211.4</v>
+        <v>3882.3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>40.9</v>
+        <v>19.3</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +721,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -734,18 +737,18 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>791</v>
+        <v>817.05</v>
       </c>
       <c r="F9" t="n">
-        <v>7949.6</v>
+        <v>8211.4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +757,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -767,21 +770,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>890.35</v>
+        <v>791</v>
       </c>
       <c r="F10" t="n">
-        <v>4474</v>
+        <v>7949.6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>22.25</v>
+        <v>39.6</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -790,7 +793,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46020</v>
+        <v>46027</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -806,20 +809,56 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
+        <v>890.35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4474</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CN#252610159828</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
         <v>902.99</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>4537.54</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>CN#252609871125</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>22.59</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <f>Index!$C$2</f>
         <v/>
       </c>
